--- a/medicine/Pharmacie/Alpha-bloquant/Alpha-bloquant.xlsx
+++ b/medicine/Pharmacie/Alpha-bloquant/Alpha-bloquant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les alpha-bloquants (ou alphabloquants) sont un groupe de médicaments qui bloquent les récepteurs alpha-adrénergiques, principalement situés au niveau des artères et des muscles lisses. Ils inhibent les neurotransmetteurs de la famille des catécholamines, notamment l'adrénaline et la noradrénaline[1].
-Ces médicaments sont utilisés pour traiter les symptômes de l'hypertrophie bénigne de la prostate et en tant qu'anti-hypertenseur dans l'hypertension artérielle. Ils peuvent être utilisés pour améliorer les symptômes de la maladie de Raynaud[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alpha-bloquants (ou alphabloquants) sont un groupe de médicaments qui bloquent les récepteurs alpha-adrénergiques, principalement situés au niveau des artères et des muscles lisses. Ils inhibent les neurotransmetteurs de la famille des catécholamines, notamment l'adrénaline et la noradrénaline.
+Ces médicaments sont utilisés pour traiter les symptômes de l'hypertrophie bénigne de la prostate et en tant qu'anti-hypertenseur dans l'hypertension artérielle. Ils peuvent être utilisés pour améliorer les symptômes de la maladie de Raynaud.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hypertrophie bénigne de la prostate
-Les alpha1-bloquants ciblant particulièrement les récepteurs alpha1-adrénergiques, sont utilisé dans le traitement des troubles de la prostate[2] où ils permettent de détendre les muscles (vessie, prostate), favorisant ainsi la miction.
-Antihypertenseurs
-Les alpha-bloquants sont utilisés pour diminuer la tension artérielle.
-Ils sont généralement utilisés en dernière intention, après échecs d'autres antihypertenseurs comme les inhibiteurs de l'enzyme de conversion ou les bêtabloquants. Ils peuvent également être utilisés en cas d'urgence hypertensive[1].
+          <t>Hypertrophie bénigne de la prostate</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alpha1-bloquants ciblant particulièrement les récepteurs alpha1-adrénergiques, sont utilisé dans le traitement des troubles de la prostate où ils permettent de détendre les muscles (vessie, prostate), favorisant ainsi la miction.
 </t>
         </is>
       </c>
@@ -544,14 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Précautions d'emploi</t>
+          <t>Indications</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Effets secondaires
-Ils peuvent réduire la tension artérielle, provoquer une hypotension orthostatique avec vertige au début du traitement, une tachycardie et des palpitations d'origine réflexe.
-Contre-indications</t>
+          <t>Antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alpha-bloquants sont utilisés pour diminuer la tension artérielle.
+Ils sont généralement utilisés en dernière intention, après échecs d'autres antihypertenseurs comme les inhibiteurs de l'enzyme de conversion ou les bêtabloquants. Ils peuvent également être utilisés en cas d'urgence hypertensive.
+</t>
         </is>
       </c>
     </row>
@@ -576,17 +596,93 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Précautions d'emploi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent réduire la tension artérielle, provoquer une hypotension orthostatique avec vertige au début du traitement, une tachycardie et des palpitations d'origine réflexe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alpha-bloquant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpha-bloquant</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>α1-bloquants sélectifs (antihypertenseurs)
-la prazosine,
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>α1-bloquants sélectifs (antihypertenseurs)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>la prazosine,
 la térazosine,
-l'urapidil.
-Utilisés dans le traitement de l’hypertrophie bénigne de la prostate
-l'alfuzosine,
+l'urapidil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alpha-bloquant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpha-bloquant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisés dans le traitement de l’hypertrophie bénigne de la prostate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>l'alfuzosine,
 la doxazosine,
 la tamsulosine,
 la térazosine,
